--- a/Proyecto_alterno/tokens.xlsx
+++ b/Proyecto_alterno/tokens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarongarcia/Documents/GitHub/Compiladores/Proyecto_alterno/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D07E7979-7249-8447-80D5-46C6F028E0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0115C114-6D5A-D047-9933-25186E90DD66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14800" xr2:uid="{24C243FD-550B-E74E-9866-4C261909DC45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{24C243FD-550B-E74E-9866-4C261909DC45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,15 +32,228 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+  <si>
+    <t xml:space="preserve">Simbolo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre interno </t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso </t>
+  </si>
+  <si>
+    <t>idensym</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>numbersym</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>PLUS</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>plussym</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>minnussym</t>
+  </si>
+  <si>
+    <t>MINUS</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>multsym</t>
+  </si>
+  <si>
+    <t>MULT</t>
+  </si>
+  <si>
+    <t>slashsym</t>
+  </si>
+  <si>
+    <t>DIVIDE</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>eqlsym</t>
+  </si>
+  <si>
+    <t>ASSIGN</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>moresym</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>lesssym</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>plus=</t>
+  </si>
+  <si>
+    <t>less=</t>
+  </si>
+  <si>
+    <t>mult=</t>
+  </si>
+  <si>
+    <t>divide=</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>modsym</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>addeqlsym</t>
+  </si>
+  <si>
+    <t>lesseqlsym</t>
+  </si>
+  <si>
+    <t>multeqlsym</t>
+  </si>
+  <si>
+    <t>slasheqlsym</t>
+  </si>
+  <si>
+    <t>moreeqlsym</t>
+  </si>
+  <si>
+    <t>eqleqlsym</t>
+  </si>
+  <si>
+    <t>difeqlsym</t>
+  </si>
+  <si>
+    <t>andsym</t>
+  </si>
+  <si>
+    <t>orsym</t>
+  </si>
+  <si>
+    <t>plusplussym</t>
+  </si>
+  <si>
+    <t>lesslesssym</t>
+  </si>
+  <si>
+    <t>PLUSEQL</t>
+  </si>
+  <si>
+    <t>LESSEQL</t>
+  </si>
+  <si>
+    <t>MULTEQL</t>
+  </si>
+  <si>
+    <t>DIVIDEEQL</t>
+  </si>
+  <si>
+    <t>MREQL</t>
+  </si>
+  <si>
+    <t>LFEQL</t>
+  </si>
+  <si>
+    <t>EQLEQL</t>
+  </si>
+  <si>
+    <t>DIFEQL</t>
+  </si>
+  <si>
+    <t>ANDAND</t>
+  </si>
+  <si>
+    <t>OROR</t>
+  </si>
+  <si>
+    <t>PLUSPLUS</t>
+  </si>
+  <si>
+    <t>LESSLESS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,8 +276,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,12 +594,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1B3AD9-20A2-3A41-A017-DF3F84EA8AC0}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>